--- a/db.xlsx
+++ b/db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -56,18 +56,9 @@
     <t>Timmy</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -77,16 +68,52 @@
     <t>c</t>
   </si>
   <si>
-    <t>Marks1</t>
-  </si>
-  <si>
-    <t>Marks2</t>
-  </si>
-  <si>
-    <t>Marks3</t>
-  </si>
-  <si>
-    <t>Marks4</t>
+    <t>sully</t>
+  </si>
+  <si>
+    <t>dean</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>tony</t>
+  </si>
+  <si>
+    <t>soniya</t>
+  </si>
+  <si>
+    <t>mruna</t>
+  </si>
+  <si>
+    <t>sree</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>rach</t>
+  </si>
+  <si>
+    <t>monica</t>
+  </si>
+  <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -438,383 +465,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>